--- a/Data_II/end_of_mo_$.xlsx
+++ b/Data_II/end_of_mo_$.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogervasak/Desktop/GitHub/CapstoneII/Data_II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E935A9C1-5D75-E941-A19D-2E74EC384388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E6897F-8703-1D4E-87CF-341F38012710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16660" activeTab="4" xr2:uid="{F0AC2137-128C-C147-B2B7-E97E31D25FA5}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16660" activeTab="2" xr2:uid="{F0AC2137-128C-C147-B2B7-E97E31D25FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="E-Commerce" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>KR</t>
   </si>
   <si>
-    <t>MCD Close</t>
-  </si>
-  <si>
     <t>SBUX</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>SP500</t>
+  </si>
+  <si>
+    <t>MCD</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843982CA-8EEA-1648-B6D0-B9B520657BE9}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="3" sqref="C1:C1048576 E1:E1048576 G1:G1048576 I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2404,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E3B0A-6594-224C-BFAC-377AB8A29CDD}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
